--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC58-TORNILLOS CANULADOS 4.0 ACERO.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC58-TORNILLOS CANULADOS 4.0 ACERO.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Ortomax-01\archivos compartidos ortomax bodega\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08154FC3-42FF-4C83-B0D9-92D3DB2D0FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F959741-DC42-4D30-88CC-4370C9D9ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="135" windowWidth="10365" windowHeight="12450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1388,6 +1377,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1448,11 +1442,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1894,46 +1883,46 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:16" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:16" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
     </row>
     <row r="5" spans="1:16" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
     </row>
     <row r="6" spans="1:16" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
@@ -1942,7 +1931,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="57">
         <f ca="1">NOW()</f>
-        <v>45336.743954166668</v>
+        <v>45401.699000231485</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>72</v>
@@ -2104,10 +2093,10 @@
       <c r="P17" s="45"/>
     </row>
     <row r="18" spans="1:16" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="46"/>
       <c r="D18" s="32"/>
       <c r="E18" s="47"/>
@@ -2130,15 +2119,15 @@
       <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="49"/>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
@@ -2542,11 +2531,11 @@
       <c r="F42"/>
     </row>
     <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
       <c r="E43"/>
       <c r="F43"/>
     </row>
@@ -2779,11 +2768,11 @@
       <c r="F61"/>
     </row>
     <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
       <c r="E62"/>
       <c r="F62"/>
     </row>
@@ -3056,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3082,18 +3071,18 @@
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="85"/>
       <c r="B2" s="67"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="105"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="B3" s="68"/>
-      <c r="C3" s="103"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="69" t="s">
         <v>144</v>
       </c>
@@ -3102,22 +3091,22 @@
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="86"/>
       <c r="B4" s="68"/>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="109"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="1:7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87"/>
       <c r="B5" s="71"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
     </row>
@@ -3137,7 +3126,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="73">
         <f ca="1">NOW()</f>
-        <v>45336.743954166668</v>
+        <v>45401.699000231485</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>72</v>
@@ -3180,10 +3169,10 @@
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="113"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="36" t="s">
         <v>151</v>
       </c>
@@ -3659,10 +3648,10 @@
       <c r="B41" s="51"/>
       <c r="C41" s="66"/>
       <c r="D41" s="9"/>
-      <c r="F41" s="114" t="s">
+      <c r="F41" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="115">
+      <c r="G41" s="95">
         <f>SUM(G23:G40)</f>
         <v>0</v>
       </c>
@@ -3672,10 +3661,10 @@
       <c r="B42" s="51"/>
       <c r="C42" s="66"/>
       <c r="D42" s="9"/>
-      <c r="F42" s="114" t="s">
+      <c r="F42" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="116">
+      <c r="G42" s="96">
         <f>+G41*0.12</f>
         <v>0</v>
       </c>
@@ -3685,10 +3674,10 @@
       <c r="B43" s="51"/>
       <c r="C43" s="66"/>
       <c r="D43" s="9"/>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="G43" s="116">
+      <c r="G43" s="96">
         <f>+G41+G42</f>
         <v>0</v>
       </c>
@@ -3703,11 +3692,11 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
       <c r="F45" s="56"/>
       <c r="G45" s="54"/>
     </row>
